--- a/output.xlsx
+++ b/output.xlsx
@@ -23,12 +23,12 @@
 Demo Company Phone: 111-222-3833 poe RATE: 08-14-2008
 1234 Main Street E-Mail: 333-444-444 ene near ene
 Ashland, KY 41102 Web: httpvanww. ksoftware.net 7
-BILLTO:
+BILL TO:
 Test Customer
 1234 Main Street
 Ashland, KY 41101
-[code [eeeaion mr | Ta
-SKU1222 Test Import Name - Description Gaes Here $10.00 $10.00
+Code Description ary Price | Line Total
+SKU1222 Test Import Name - Description Gaes Here 1 $10.00 $10.00
 Labor - Example labor itern . Quantity is number af hours spent, 15 $100.00 $150.00
 price is hourly rate, Quantity accepts decimal values
 ‘An invoice note can go here. Muf-line and even muti-page notes are supported. ‘SUBTOTAL: $160.00
